--- a/business-center/wms-center/wms-service/wms-business-putinstorage/src/main/resources/template/SKU_Import_of_Inbound_Order.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-putinstorage/src/main/resources/template/SKU_Import_of_Inbound_Order.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11850"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="SKU List" sheetId="1" r:id="rId1"/>
@@ -16,24 +16,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Inbound Order Number
-（Required）</t>
+    <t>Inbound Order Number</t>
   </si>
   <si>
-    <t>SKU CODE
-（Required）</t>
+    <t>SKU CODE</t>
   </si>
   <si>
-    <t>Quantity
-（Required）</t>
+    <t>Quantity</t>
   </si>
   <si>
-    <t>Original SKU CODE
-（Not Required）</t>
+    <t>Original SKU CODE</t>
   </si>
   <si>
-    <t>Remarks
-（Not Required）</t>
+    <t>Remarks</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1032,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>

--- a/business-center/wms-center/wms-service/wms-business-putinstorage/src/main/resources/template/SKU_Import_of_Inbound_Order.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-putinstorage/src/main/resources/template/SKU_Import_of_Inbound_Order.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Inbound Order Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>SKU CODE</t>
   </si>
@@ -1029,72 +1026,63 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="37.725" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="25.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="23.8166666666667" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="25.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="23.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:5">
+    <row r="1" ht="33" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
